--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H2">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N2">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O2">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P2">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q2">
-        <v>72.56936504611933</v>
+        <v>0.1372536728783333</v>
       </c>
       <c r="R2">
-        <v>653.124285415074</v>
+        <v>1.235283055905</v>
       </c>
       <c r="S2">
-        <v>0.02595524526630753</v>
+        <v>0.0003338730088958885</v>
       </c>
       <c r="T2">
-        <v>0.02595524526630754</v>
+        <v>0.0003338730088958885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H3">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P3">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q3">
-        <v>126.9363093842113</v>
+        <v>5.345606182426778</v>
       </c>
       <c r="R3">
-        <v>1142.426784457902</v>
+        <v>48.110455641841</v>
       </c>
       <c r="S3">
-        <v>0.04540019112986965</v>
+        <v>0.01300332139076062</v>
       </c>
       <c r="T3">
-        <v>0.04540019112986966</v>
+        <v>0.01300332139076062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H4">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N4">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O4">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P4">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q4">
-        <v>982.8574232986052</v>
+        <v>7.843052245837333</v>
       </c>
       <c r="R4">
-        <v>8845.716809687448</v>
+        <v>70.587470212536</v>
       </c>
       <c r="S4">
-        <v>0.3515299529948211</v>
+        <v>0.01907842170873325</v>
       </c>
       <c r="T4">
-        <v>0.3515299529948211</v>
+        <v>0.01907842170873325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
         <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N5">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O5">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P5">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q5">
-        <v>74.2080785859869</v>
+        <v>3.332811454736666</v>
       </c>
       <c r="R5">
-        <v>667.8727072738822</v>
+        <v>29.99530309263</v>
       </c>
       <c r="S5">
-        <v>0.02654134949667322</v>
+        <v>0.008107147627750434</v>
       </c>
       <c r="T5">
-        <v>0.02654134949667322</v>
+        <v>0.008107147627750435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
         <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P6">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q6">
         <v>129.8027014045429</v>
@@ -818,10 +818,10 @@
         <v>1168.224312640886</v>
       </c>
       <c r="S6">
-        <v>0.04642538830321975</v>
+        <v>0.3157483335193904</v>
       </c>
       <c r="T6">
-        <v>0.04642538830321975</v>
+        <v>0.3157483335193905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
         <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N7">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O7">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P7">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q7">
-        <v>1005.051661408518</v>
+        <v>190.4460100546506</v>
       </c>
       <c r="R7">
-        <v>9045.464952676666</v>
+        <v>1714.014090491856</v>
       </c>
       <c r="S7">
-        <v>0.3594679705491367</v>
+        <v>0.4632647059691198</v>
       </c>
       <c r="T7">
-        <v>0.3594679705491367</v>
+        <v>0.46326470596912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H8">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I8">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J8">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N8">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O8">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P8">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q8">
-        <v>24.82783492960344</v>
+        <v>0.7641185577849998</v>
       </c>
       <c r="R8">
-        <v>223.450514366431</v>
+        <v>6.877067020064999</v>
       </c>
       <c r="S8">
-        <v>0.008879952919799108</v>
+        <v>0.001858737596530559</v>
       </c>
       <c r="T8">
-        <v>0.008879952919799108</v>
+        <v>0.001858737596530559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H9">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I9">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J9">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P9">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q9">
-        <v>43.42815641230144</v>
+        <v>29.76005523891033</v>
       </c>
       <c r="R9">
-        <v>390.8534077107129</v>
+        <v>267.840497150193</v>
       </c>
       <c r="S9">
-        <v>0.01553256598605346</v>
+        <v>0.07239208233305747</v>
       </c>
       <c r="T9">
-        <v>0.01553256598605346</v>
+        <v>0.07239208233305748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H10">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I10">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J10">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N10">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O10">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P10">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q10">
-        <v>336.2606500619791</v>
+        <v>43.66383532799199</v>
       </c>
       <c r="R10">
-        <v>3026.345850557812</v>
+        <v>392.974517951928</v>
       </c>
       <c r="S10">
-        <v>0.1202673833541196</v>
+        <v>0.1062133768457614</v>
       </c>
       <c r="T10">
-        <v>0.1202673833541196</v>
+        <v>0.1062133768457615</v>
       </c>
     </row>
   </sheetData>
